--- a/data/study_3.xlsx
+++ b/data/study_3.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study_3_results" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="raw-data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="data3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,26 +22,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t xml:space="preserve">relative_radius</t>
   </si>
   <si>
     <t xml:space="preserve">current_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relative radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> norm stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current left</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current right</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -55,6 +132,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +181,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -113,7 +203,386 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw-data'!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>current_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'raw-data'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'raw-data'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="52306359"/>
+        <c:axId val="64460779"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52306359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64460779"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64460779"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52306359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>402120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5406480" y="3717360"/>
+        <a:ext cx="5768280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -123,11 +592,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -222,4 +691,752 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.256783126910918</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>29.78</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.0094</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.256783126910919</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.256783126910918</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>-0.00099</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>-0.000997</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>-0.000998</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>-0.000998</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>-0.000998</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2.56783126910919E-005</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2.56783126910918E-005</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>-0.000999</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/study_3.xlsx
+++ b/data/study_3.xlsx
@@ -5,13 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="study_3_results" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="raw-data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="data3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="bv-raw" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="linear-raw" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'bv-raw'!$A$1:$K$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'linear-raw'!$A$1:$Q$35</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="61">
   <si>
     <t xml:space="preserve">relative_radius</t>
   </si>
@@ -100,6 +106,111 @@
   </si>
   <si>
     <t xml:space="preserve"> 44s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relative radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 194s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> num_iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 175s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 313s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 327s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 174s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 330s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 301s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 193s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 299s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 190s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 324s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 318s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 176s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 244s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 135s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 181s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 134s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 173s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 121s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 179s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 115s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 169s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85s</t>
   </si>
 </sst>
 </file>
@@ -181,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +305,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,6 +318,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -266,7 +390,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -419,11 +543,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52306359"/>
-        <c:axId val="64460779"/>
+        <c:axId val="10194861"/>
+        <c:axId val="48302502"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52306359"/>
+        <c:axId val="10194861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,12 +584,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64460779"/>
+        <c:crossAx val="48302502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64460779"/>
+        <c:axId val="48302502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +626,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52306359"/>
+        <c:crossAx val="10194861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -561,9 +685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
+      <xdr:colOff>470880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -571,8 +695,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5406480" y="3717360"/>
-        <a:ext cx="5768280" cy="3239280"/>
+        <a:off x="5425560" y="3717360"/>
+        <a:ext cx="5793840" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -583,6 +707,14 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,7 +728,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -704,7 +836,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
   </cols>
@@ -896,11 +1028,11 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1439,4 +1571,3093 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.000982</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.0179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.000998</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.000999</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.000999</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.000999</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0.000993</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.0067</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K35"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.000982</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0.000998</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.000999</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0.000999</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q35"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>